--- a/REGULAR/CASUAL-REGULAR FINAL/DOCTORA, ZENAIDA.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/DOCTORA, ZENAIDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52FE34-84A4-41F1-9178-6E0C6157F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL EMPLOYEE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PERMANENT!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="248">
   <si>
     <t>PERIOD</t>
   </si>
@@ -786,7 +785,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1433,6 +1432,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1440,12 +1445,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1734,7 +1733,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1751,26 +1750,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K447" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K447"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1782,26 +1781,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7CE9BC2A-5E27-4C87-947E-F3FBBFC4DF32}" name="Table13" displayName="Table13" ref="A8:K97" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K97" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K97"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{92EA0217-BE82-407E-9120-53BD7F766547}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6600B9E6-7956-49FD-9F93-A1D848657041}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{1A4893A7-FC5B-429B-A839-308BE1D7C6EC}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E800F366-9BAE-4E7D-A0AA-C584CD89A8AA}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D1D69170-6F1D-4DCA-AA71-A6ADC0FBF038}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EE0A1B5E-7118-4826-8458-BF64377DFC14}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D46F4EFF-E9D9-4778-86AD-7FFE84BFA09B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5747654A-67CC-4B99-B159-F2DB4ED4CFFC}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{A0EBC6EF-E116-4ABD-9303-A61842A1083C}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60E751FA-9FA0-4398-A5D0-11C424A08091}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{43B2CB00-628A-4949-B7DC-C7D5751D4C69}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2108,7 +2107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2117,25 +2116,25 @@
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A390" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B397" sqref="B397"/>
+      <selection pane="bottomLeft" activeCell="I398" sqref="I398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2176,7 +2175,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2195,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2204,7 +2203,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2217,7 +2216,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -2234,7 +2233,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2278,7 +2277,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>161.76</v>
+        <v>163.01</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2288,12 +2287,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>101</v>
       </c>
@@ -2311,7 +2310,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36831</v>
       </c>
@@ -2331,7 +2330,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36861</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>111</v>
       </c>
@@ -2369,7 +2368,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36892</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -2412,7 +2411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>116</v>
@@ -2429,7 +2428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36923</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>113</v>
@@ -2474,7 +2473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36951</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>36982</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>47</v>
@@ -2545,7 +2544,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>91</v>
@@ -2564,7 +2563,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -2581,7 +2580,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>37012</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>37043</v>
       </c>
@@ -2629,7 +2628,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>37073</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>46</v>
@@ -2674,7 +2673,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>37104</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>126</v>
@@ -2721,7 +2720,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>37135</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>37165</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>127</v>
@@ -2794,7 +2793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>124</v>
@@ -2813,7 +2812,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>37196</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>57</v>
@@ -2858,7 +2857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>37226</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>132</v>
       </c>
@@ -2904,7 +2903,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>37257</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2949,7 +2948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -2966,7 +2965,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>37288</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>46</v>
@@ -3009,7 +3008,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>126</v>
@@ -3030,7 +3029,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>126</v>
@@ -3049,7 +3048,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>91</v>
@@ -3068,7 +3067,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>137</v>
@@ -3087,7 +3086,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>37316</v>
       </c>
@@ -3107,7 +3106,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>37347</v>
       </c>
@@ -3127,7 +3126,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>37377</v>
       </c>
@@ -3147,7 +3146,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>37408</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>37438</v>
       </c>
@@ -3187,7 +3186,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>37469</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>37500</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37530</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>37561</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37591</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>140</v>
       </c>
@@ -3311,7 +3310,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="54"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37622</v>
       </c>
@@ -3331,7 +3330,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>37653</v>
       </c>
@@ -3351,7 +3350,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37681</v>
       </c>
@@ -3371,7 +3370,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>37712</v>
       </c>
@@ -3391,7 +3390,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37742</v>
       </c>
@@ -3411,7 +3410,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37773</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37803</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37834</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>37865</v>
       </c>
@@ -3491,7 +3490,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37895</v>
       </c>
@@ -3515,7 +3514,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37926</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>37956</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>143</v>
       </c>
@@ -3579,7 +3578,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>37987</v>
       </c>
@@ -3599,7 +3598,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>38018</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>38047</v>
       </c>
@@ -3639,7 +3638,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>38078</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>38108</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>146</v>
@@ -3710,7 +3709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>38139</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>38169</v>
       </c>
@@ -3754,7 +3753,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>38200</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>38231</v>
       </c>
@@ -3798,7 +3797,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>38261</v>
       </c>
@@ -3818,7 +3817,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>38292</v>
       </c>
@@ -3838,7 +3837,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>38322</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>149</v>
       </c>
@@ -3880,7 +3879,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>38353</v>
       </c>
@@ -3904,7 +3903,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -3921,7 +3920,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3938,7 +3937,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>38384</v>
       </c>
@@ -3962,7 +3961,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>38412</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>53</v>
@@ -4007,7 +4006,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>46</v>
@@ -4026,7 +4025,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>152</v>
@@ -4043,7 +4042,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>38443</v>
       </c>
@@ -4067,7 +4066,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>38473</v>
       </c>
@@ -4087,7 +4086,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>38504</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>38534</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -4158,7 +4157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>38565</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>38596</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>46</v>
@@ -4223,7 +4222,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>38626</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -4268,7 +4267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>38657</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>38687</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>158</v>
@@ -4340,7 +4339,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>159</v>
       </c>
@@ -4358,7 +4357,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38718</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>52</v>
@@ -4401,7 +4400,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38749</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38777</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>45</v>
@@ -4468,7 +4467,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>162</v>
@@ -4485,7 +4484,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>38808</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38838</v>
       </c>
@@ -4529,7 +4528,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>38869</v>
       </c>
@@ -4549,7 +4548,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>38899</v>
       </c>
@@ -4573,7 +4572,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>38930</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>38961</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>168</v>
@@ -4642,7 +4641,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38991</v>
       </c>
@@ -4666,7 +4665,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>39022</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>170</v>
@@ -4709,7 +4708,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>39052</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>173</v>
@@ -4750,7 +4749,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>172</v>
       </c>
@@ -4768,7 +4767,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>39083</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>46</v>
@@ -4813,7 +4812,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>47</v>
@@ -4832,7 +4831,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>174</v>
@@ -4849,7 +4848,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>39114</v>
       </c>
@@ -4869,7 +4868,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>39142</v>
       </c>
@@ -4889,7 +4888,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>39173</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>39203</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>39234</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>39264</v>
       </c>
@@ -4987,7 +4986,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>39295</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>39326</v>
       </c>
@@ -5031,7 +5030,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>39356</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>87</v>
@@ -5076,7 +5075,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>48</v>
@@ -5095,7 +5094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>46</v>
@@ -5114,7 +5113,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>39387</v>
       </c>
@@ -5134,7 +5133,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>39417</v>
       </c>
@@ -5154,7 +5153,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>183</v>
       </c>
@@ -5172,7 +5171,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>39448</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>39479</v>
       </c>
@@ -5222,7 +5221,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>39508</v>
       </c>
@@ -5242,7 +5241,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39539</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -5285,7 +5284,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>39569</v>
       </c>
@@ -5305,7 +5304,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>39600</v>
       </c>
@@ -5325,7 +5324,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>39630</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -5370,7 +5369,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>53</v>
@@ -5389,7 +5388,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>39661</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>189</v>
@@ -5432,7 +5431,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>39692</v>
       </c>
@@ -5452,7 +5451,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>39722</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>39753</v>
       </c>
@@ -5492,7 +5491,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>39783</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>48</v>
@@ -5540,7 +5539,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>52</v>
@@ -5560,7 +5559,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
         <v>193</v>
       </c>
@@ -5578,7 +5577,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>39814</v>
       </c>
@@ -5598,7 +5597,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39845</v>
       </c>
@@ -5618,7 +5617,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>39873</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>46</v>
@@ -5663,7 +5662,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -5682,7 +5681,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39904</v>
       </c>
@@ -5702,7 +5701,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>39934</v>
       </c>
@@ -5722,7 +5721,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>39965</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>47</v>
@@ -5767,7 +5766,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>48</v>
@@ -5786,7 +5785,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>46</v>
@@ -5805,7 +5804,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>46</v>
@@ -5824,7 +5823,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>116</v>
@@ -5841,7 +5840,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39995</v>
       </c>
@@ -5861,7 +5860,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>40026</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>40057</v>
       </c>
@@ -5907,7 +5906,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>40087</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>47</v>
@@ -5952,7 +5951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>40118</v>
       </c>
@@ -5972,7 +5971,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>40148</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>87</v>
@@ -6018,7 +6017,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="48" t="s">
         <v>200</v>
       </c>
@@ -6036,7 +6035,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>40179</v>
       </c>
@@ -6058,7 +6057,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>40210</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>47</v>
@@ -6103,7 +6102,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>56</v>
@@ -6122,7 +6121,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>40238</v>
       </c>
@@ -6142,7 +6141,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>40269</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>40299</v>
       </c>
@@ -6182,7 +6181,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>40330</v>
       </c>
@@ -6202,7 +6201,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>40360</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>40391</v>
       </c>
@@ -6248,7 +6247,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>40422</v>
       </c>
@@ -6268,7 +6267,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>40452</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>40483</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>40513</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>204</v>
       </c>
@@ -6364,7 +6363,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="54"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>40544</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>46</v>
@@ -6409,7 +6408,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>40575</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>46</v>
@@ -6454,7 +6453,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>40603</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>40634</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>40664</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>46</v>
@@ -6551,7 +6550,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>46</v>
@@ -6568,7 +6567,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>40695</v>
       </c>
@@ -6588,7 +6587,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>40725</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>40756</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>40787</v>
       </c>
@@ -6660,7 +6659,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>40817</v>
       </c>
@@ -6680,7 +6679,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>40848</v>
       </c>
@@ -6700,7 +6699,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>40878</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>47</v>
@@ -6748,7 +6747,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="48" t="s">
         <v>208</v>
       </c>
@@ -6766,7 +6765,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>40909</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40940</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>46</v>
@@ -6837,7 +6836,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>40969</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>41000</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>41030</v>
       </c>
@@ -6909,7 +6908,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>41061</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>41091</v>
       </c>
@@ -6953,7 +6952,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>41122</v>
       </c>
@@ -6973,7 +6972,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>41153</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>41183</v>
       </c>
@@ -7019,7 +7018,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>41214</v>
       </c>
@@ -7039,7 +7038,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>41244</v>
       </c>
@@ -7063,7 +7062,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>213</v>
       </c>
@@ -7081,7 +7080,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>41275</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>46</v>
@@ -7124,7 +7123,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>41306</v>
       </c>
@@ -7144,7 +7143,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>41334</v>
       </c>
@@ -7164,7 +7163,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>41365</v>
       </c>
@@ -7184,7 +7183,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>41395</v>
       </c>
@@ -7204,7 +7203,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>41426</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>41456</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>58</v>
@@ -7273,7 +7272,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>41487</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -7318,7 +7317,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>48</v>
@@ -7337,7 +7336,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>41518</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>41548</v>
       </c>
@@ -7383,7 +7382,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>41579</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>158</v>
@@ -7428,7 +7427,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>41609</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>46</v>
@@ -7476,7 +7475,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>219</v>
       </c>
@@ -7491,7 +7490,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="52"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>41640</v>
       </c>
@@ -7511,7 +7510,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="52"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>41671</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>41699</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>41730</v>
       </c>
@@ -7583,7 +7582,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="52"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>41760</v>
       </c>
@@ -7603,7 +7602,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="52"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>41791</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>41821</v>
       </c>
@@ -7649,7 +7648,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="52"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>41852</v>
       </c>
@@ -7669,7 +7668,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="52"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>41883</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>41913</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41944</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41974</v>
       </c>
@@ -7765,7 +7764,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="52"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>225</v>
       </c>
@@ -7783,7 +7782,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="52"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>42005</v>
       </c>
@@ -7803,7 +7802,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="52"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>42036</v>
       </c>
@@ -7823,7 +7822,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="52"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>42064</v>
       </c>
@@ -7843,7 +7842,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="52"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>42095</v>
       </c>
@@ -7863,7 +7862,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="52"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>42125</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>42156</v>
       </c>
@@ -7909,7 +7908,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="52"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>42186</v>
       </c>
@@ -7929,7 +7928,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="52"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>42217</v>
       </c>
@@ -7949,7 +7948,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="52"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>42248</v>
       </c>
@@ -7969,7 +7968,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="52"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>42278</v>
       </c>
@@ -7989,7 +7988,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="52"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>42309</v>
       </c>
@@ -8009,7 +8008,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="52"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>42339</v>
       </c>
@@ -8033,7 +8032,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="52"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="48" t="s">
         <v>227</v>
       </c>
@@ -8051,7 +8050,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="52"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>42370</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>228</v>
@@ -8094,7 +8093,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="52"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>42401</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>230</v>
@@ -8137,7 +8136,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="52"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>42430</v>
       </c>
@@ -8161,7 +8160,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="52"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>42461</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>232</v>
@@ -8202,7 +8201,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="52"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>42491</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>57</v>
@@ -8247,7 +8246,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>57</v>
@@ -8266,7 +8265,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>233</v>
@@ -8283,7 +8282,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="52"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>42522</v>
       </c>
@@ -8303,7 +8302,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="52"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>42552</v>
       </c>
@@ -8323,7 +8322,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="52"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>42583</v>
       </c>
@@ -8343,7 +8342,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="52"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>42614</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>47</v>
@@ -8388,7 +8387,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>42644</v>
       </c>
@@ -8412,7 +8411,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="52"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>42675</v>
       </c>
@@ -8436,7 +8435,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="52"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>42705</v>
       </c>
@@ -8460,7 +8459,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="52"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="48" t="s">
         <v>243</v>
       </c>
@@ -8478,7 +8477,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="52"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>42736</v>
       </c>
@@ -8498,7 +8497,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="52"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>42767</v>
       </c>
@@ -8518,7 +8517,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="52"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>42795</v>
       </c>
@@ -8538,7 +8537,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="52"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42826</v>
       </c>
@@ -8558,7 +8557,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="52"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>42856</v>
       </c>
@@ -8578,7 +8577,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="52"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42887</v>
       </c>
@@ -8598,7 +8597,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="52"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>42917</v>
       </c>
@@ -8618,7 +8617,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="52"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42948</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>48</v>
@@ -8661,7 +8660,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="52"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>42979</v>
       </c>
@@ -8681,7 +8680,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="52"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>43009</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>46</v>
@@ -8726,7 +8725,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>112</v>
@@ -8745,7 +8744,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>43040</v>
       </c>
@@ -8765,7 +8764,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="52"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>43070</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>158</v>
@@ -8811,7 +8810,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="48" t="s">
         <v>44</v>
       </c>
@@ -8833,7 +8832,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43101</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>43125</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -8876,7 +8875,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43132</v>
       </c>
@@ -8896,7 +8895,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43160</v>
       </c>
@@ -8916,7 +8915,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43191</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>46</v>
@@ -8961,7 +8960,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>47</v>
@@ -8980,7 +8979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43221</v>
       </c>
@@ -9000,7 +8999,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43252</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43282</v>
       </c>
@@ -9046,7 +9045,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43313</v>
       </c>
@@ -9066,7 +9065,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43344</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43374</v>
       </c>
@@ -9110,7 +9109,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43405</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43435</v>
       </c>
@@ -9160,7 +9159,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="48" t="s">
         <v>55</v>
       </c>
@@ -9178,7 +9177,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43466</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>56</v>
@@ -9221,7 +9220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43497</v>
       </c>
@@ -9241,7 +9240,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43525</v>
       </c>
@@ -9261,7 +9260,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43556</v>
       </c>
@@ -9281,7 +9280,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43586</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43617</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>58</v>
@@ -9352,7 +9351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43647</v>
       </c>
@@ -9372,7 +9371,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43678</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>56</v>
@@ -9417,7 +9416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43709</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43739</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>63</v>
@@ -9486,7 +9485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43770</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>65</v>
@@ -9531,7 +9530,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43800</v>
       </c>
@@ -9555,7 +9554,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>71</v>
       </c>
@@ -9573,7 +9572,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -9593,7 +9592,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43862</v>
       </c>
@@ -9613,7 +9612,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43891</v>
       </c>
@@ -9633,7 +9632,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43922</v>
       </c>
@@ -9653,7 +9652,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43952</v>
       </c>
@@ -9673,7 +9672,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43983</v>
       </c>
@@ -9693,7 +9692,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44013</v>
       </c>
@@ -9713,7 +9712,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44044</v>
       </c>
@@ -9733,7 +9732,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44075</v>
       </c>
@@ -9753,7 +9752,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44105</v>
       </c>
@@ -9779,7 +9778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44136</v>
       </c>
@@ -9799,7 +9798,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44166</v>
       </c>
@@ -9823,7 +9822,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>74</v>
       </c>
@@ -9841,7 +9840,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>45</v>
@@ -9884,7 +9883,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44228</v>
       </c>
@@ -9904,7 +9903,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44256</v>
       </c>
@@ -9924,7 +9923,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44287</v>
       </c>
@@ -9944,7 +9943,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44317</v>
       </c>
@@ -9964,7 +9963,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44348</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -10009,7 +10008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44378</v>
       </c>
@@ -10029,7 +10028,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44409</v>
       </c>
@@ -10049,7 +10048,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44440</v>
       </c>
@@ -10069,7 +10068,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44470</v>
       </c>
@@ -10089,7 +10088,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44501</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44531</v>
       </c>
@@ -10135,7 +10134,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>79</v>
       </c>
@@ -10153,7 +10152,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44562</v>
       </c>
@@ -10173,7 +10172,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44593</v>
       </c>
@@ -10193,7 +10192,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44621</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44652</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44682</v>
       </c>
@@ -10265,7 +10264,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44713</v>
       </c>
@@ -10285,7 +10284,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44743</v>
       </c>
@@ -10305,7 +10304,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44774</v>
       </c>
@@ -10325,7 +10324,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44805</v>
       </c>
@@ -10345,7 +10344,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44835</v>
       </c>
@@ -10365,7 +10364,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44866</v>
       </c>
@@ -10391,7 +10390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44896</v>
       </c>
@@ -10415,7 +10414,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>82</v>
       </c>
@@ -10433,7 +10432,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44927</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44958</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44986</v>
       </c>
@@ -10509,7 +10508,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>47</v>
@@ -10531,7 +10530,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>46</v>
@@ -10553,7 +10552,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45017</v>
       </c>
@@ -10573,7 +10572,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45047</v>
       </c>
@@ -10599,29 +10598,33 @@
         <v>247</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45078</v>
       </c>
       <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45108</v>
       </c>
-      <c r="B398" s="20"/>
+      <c r="B398" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
@@ -10630,12 +10633,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H398" s="39"/>
+      <c r="H398" s="39">
+        <v>1</v>
+      </c>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K398" s="49">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45139</v>
       </c>
@@ -10653,7 +10660,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>45170</v>
       </c>
@@ -10671,7 +10678,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45200</v>
       </c>
@@ -10689,7 +10696,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45231</v>
       </c>
@@ -10707,7 +10714,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45261</v>
       </c>
@@ -10725,7 +10732,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45292</v>
       </c>
@@ -10743,7 +10750,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45323</v>
       </c>
@@ -10761,7 +10768,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45352</v>
       </c>
@@ -10779,7 +10786,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45383</v>
       </c>
@@ -10797,7 +10804,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45413</v>
       </c>
@@ -10815,7 +10822,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>45444</v>
       </c>
@@ -10833,7 +10840,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>45474</v>
       </c>
@@ -10851,7 +10858,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>45505</v>
       </c>
@@ -10869,7 +10876,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>45536</v>
       </c>
@@ -10887,7 +10894,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45566</v>
       </c>
@@ -10905,7 +10912,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45597</v>
       </c>
@@ -10923,7 +10930,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45627</v>
       </c>
@@ -10941,7 +10948,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45658</v>
       </c>
@@ -10959,7 +10966,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45689</v>
       </c>
@@ -10977,7 +10984,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45717</v>
       </c>
@@ -10995,7 +11002,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45748</v>
       </c>
@@ -11013,7 +11020,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45778</v>
       </c>
@@ -11031,7 +11038,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45809</v>
       </c>
@@ -11049,7 +11056,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>45839</v>
       </c>
@@ -11067,7 +11074,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>45870</v>
       </c>
@@ -11085,7 +11092,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>45901</v>
       </c>
@@ -11103,7 +11110,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>45931</v>
       </c>
@@ -11121,7 +11128,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>45962</v>
       </c>
@@ -11139,7 +11146,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>45992</v>
       </c>
@@ -11157,7 +11164,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46023</v>
       </c>
@@ -11175,7 +11182,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46054</v>
       </c>
@@ -11193,7 +11200,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>46082</v>
       </c>
@@ -11211,7 +11218,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46113</v>
       </c>
@@ -11229,7 +11236,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>46143</v>
       </c>
@@ -11247,7 +11254,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>46174</v>
       </c>
@@ -11265,7 +11272,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>46204</v>
       </c>
@@ -11283,7 +11290,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>46235</v>
       </c>
@@ -11301,7 +11308,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>46266</v>
       </c>
@@ -11319,7 +11326,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>46296</v>
       </c>
@@ -11337,7 +11344,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>46327</v>
       </c>
@@ -11355,7 +11362,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>46357</v>
       </c>
@@ -11373,7 +11380,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>46388</v>
       </c>
@@ -11391,7 +11398,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11407,7 +11414,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11423,7 +11430,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11439,7 +11446,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11455,7 +11462,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11471,7 +11478,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11487,7 +11494,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="41"/>
       <c r="B447" s="15"/>
       <c r="C447" s="42"/>
@@ -11517,10 +11524,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11543,7 +11550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8897E3-2402-46E7-AD35-F0372394D46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11555,22 +11562,22 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -11591,7 +11598,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -11611,7 +11618,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -11631,7 +11638,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -11639,7 +11646,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -11652,7 +11659,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -11669,7 +11676,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -11704,7 +11711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -11728,7 +11735,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>88</v>
       </c>
@@ -11746,7 +11753,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35765</v>
       </c>
@@ -11766,7 +11773,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>89</v>
       </c>
@@ -11786,7 +11793,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35796</v>
       </c>
@@ -11806,7 +11813,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>35827</v>
       </c>
@@ -11826,7 +11833,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35855</v>
       </c>
@@ -11846,7 +11853,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35886</v>
       </c>
@@ -11866,7 +11873,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>35916</v>
       </c>
@@ -11886,7 +11893,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>35947</v>
       </c>
@@ -11906,7 +11913,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35977</v>
       </c>
@@ -11926,7 +11933,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>36008</v>
       </c>
@@ -11952,7 +11959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>36039</v>
       </c>
@@ -11972,7 +11979,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>36069</v>
       </c>
@@ -11992,7 +11999,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>36100</v>
       </c>
@@ -12018,7 +12025,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36130</v>
       </c>
@@ -12044,7 +12051,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -12066,7 +12073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>93</v>
       </c>
@@ -12084,7 +12091,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36161</v>
       </c>
@@ -12104,7 +12111,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36192</v>
       </c>
@@ -12124,7 +12131,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36220</v>
       </c>
@@ -12150,7 +12157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>36251</v>
       </c>
@@ -12176,7 +12183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36281</v>
       </c>
@@ -12202,7 +12209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>58</v>
@@ -12221,7 +12228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>47</v>
@@ -12240,7 +12247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>46</v>
@@ -12259,7 +12266,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36312</v>
       </c>
@@ -12279,7 +12286,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>36342</v>
       </c>
@@ -12299,7 +12306,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36373</v>
       </c>
@@ -12319,7 +12326,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36404</v>
       </c>
@@ -12345,7 +12352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>84</v>
@@ -12364,7 +12371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -12383,7 +12390,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36434</v>
       </c>
@@ -12403,7 +12410,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36465</v>
       </c>
@@ -12423,7 +12430,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36495</v>
       </c>
@@ -12447,7 +12454,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>101</v>
       </c>
@@ -12465,7 +12472,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36526</v>
       </c>
@@ -12491,7 +12498,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36557</v>
       </c>
@@ -12511,7 +12518,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36586</v>
       </c>
@@ -12531,7 +12538,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>36617</v>
       </c>
@@ -12551,7 +12558,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36647</v>
       </c>
@@ -12571,7 +12578,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>36678</v>
       </c>
@@ -12591,7 +12598,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>36708</v>
       </c>
@@ -12611,7 +12618,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>36739</v>
       </c>
@@ -12637,7 +12644,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -12656,7 +12663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>106</v>
@@ -12677,7 +12684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>36770</v>
       </c>
@@ -12703,7 +12710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>109</v>
@@ -12720,7 +12727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>36800</v>
       </c>
@@ -12740,7 +12747,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -12756,7 +12763,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -12772,7 +12779,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -12788,7 +12795,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -12804,7 +12811,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -12820,7 +12827,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -12836,7 +12843,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -12852,7 +12859,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -12868,7 +12875,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -12884,7 +12891,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -12900,7 +12907,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -12916,7 +12923,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -12932,7 +12939,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -12948,7 +12955,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -12964,7 +12971,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -12980,7 +12987,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -12996,7 +13003,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -13012,7 +13019,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -13028,7 +13035,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -13044,7 +13051,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -13060,7 +13067,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -13076,7 +13083,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -13092,7 +13099,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -13108,7 +13115,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -13124,7 +13131,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -13140,7 +13147,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -13156,7 +13163,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -13172,7 +13179,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -13188,7 +13195,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -13204,7 +13211,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -13220,7 +13227,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -13236,7 +13243,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -13252,7 +13259,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -13268,7 +13275,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -13284,7 +13291,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -13300,7 +13307,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -13316,7 +13323,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -13332,7 +13339,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -13348,7 +13355,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -13364,7 +13371,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="15"/>
       <c r="C97" s="42"/>
@@ -13394,10 +13401,10 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{B3895ACB-CE94-458B-98E7-9EFC67917743}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{82BB94C0-A6B9-4946-945D-C046CB12A719}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13420,28 +13427,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -13454,7 +13461,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13483,7 +13490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13509,17 +13516,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13540,7 +13547,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13567,7 +13574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13593,7 +13600,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13619,7 +13626,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13645,7 +13652,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13671,7 +13678,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13697,7 +13704,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13723,7 +13730,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13749,7 +13756,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13769,7 +13776,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13789,7 +13796,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13809,7 +13816,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13830,7 +13837,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13851,7 +13858,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13872,7 +13879,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13914,7 +13921,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13935,7 +13942,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13956,7 +13963,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13977,7 +13984,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13998,7 +14005,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14019,7 +14026,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14040,7 +14047,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14061,7 +14068,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14082,7 +14089,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14103,7 +14110,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14124,7 +14131,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14145,7 +14152,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14166,7 +14173,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14187,7 +14194,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14208,7 +14215,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14229,7 +14236,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14238,7 +14245,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14247,7 +14254,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14256,7 +14263,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14265,7 +14272,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14274,7 +14281,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14283,7 +14290,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14292,7 +14299,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14301,7 +14308,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14310,7 +14317,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14319,7 +14326,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14328,7 +14335,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14337,7 +14344,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14346,7 +14353,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14355,7 +14362,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14364,7 +14371,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14373,7 +14380,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14382,7 +14389,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14391,7 +14398,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14400,7 +14407,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14409,7 +14416,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14418,7 +14425,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14427,7 +14434,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14436,7 +14443,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14445,7 +14452,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14454,7 +14461,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14463,7 +14470,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14472,7 +14479,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14481,7 +14488,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14490,7 +14497,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
